--- a/Files/Macro_clean_pivot.xlsx
+++ b/Files/Macro_clean_pivot.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c22f1ca899110f3/Dokumente/GitHub/AQM/Files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_FFC65FC04369AFE77C160B72130EF634427E4A35" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3FF166C8-C62D-4F56-9F4C-B0C3E04FAD08}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -424,8 +441,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,22 +494,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -534,7 +562,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,9 +594,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,6 +646,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -775,31 +839,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,12 +920,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -883,10 +963,10 @@
         <v>54.2</v>
       </c>
       <c r="M4">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -924,10 +1004,10 @@
         <v>53.3</v>
       </c>
       <c r="M5">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -965,10 +1045,10 @@
         <v>53.5</v>
       </c>
       <c r="M6">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1006,10 +1086,10 @@
         <v>55.2</v>
       </c>
       <c r="M7">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1047,15 +1127,15 @@
         <v>53.2</v>
       </c>
       <c r="M8">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B9">
-        <v>-1.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C9">
         <v>2.9</v>
@@ -1064,7 +1144,7 @@
         <v>47.9</v>
       </c>
       <c r="E9">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F9">
         <v>50.2</v>
@@ -1088,10 +1168,10 @@
         <v>49.5</v>
       </c>
       <c r="M9">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1129,10 +1209,10 @@
         <v>49.6</v>
       </c>
       <c r="M10">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1173,7 +1253,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1214,7 +1294,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1243,7 +1323,7 @@
         <v>6.5</v>
       </c>
       <c r="J13">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K13">
         <v>0.3</v>
@@ -1255,7 +1335,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1275,7 +1355,7 @@
         <v>50.6</v>
       </c>
       <c r="G14">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H14">
         <v>12</v>
@@ -1296,7 +1376,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1316,7 +1396,7 @@
         <v>50.6</v>
       </c>
       <c r="G15">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H15">
         <v>12</v>
@@ -1325,7 +1405,7 @@
         <v>6.6</v>
       </c>
       <c r="J15">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1337,7 +1417,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1378,7 +1458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1419,7 +1499,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1460,7 +1540,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1501,7 +1581,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1542,7 +1622,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1583,7 +1663,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1624,7 +1704,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -1665,7 +1745,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,7 +1765,7 @@
         <v>51.1</v>
       </c>
       <c r="G24">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H24">
         <v>12.1</v>
@@ -1706,7 +1786,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1747,7 +1827,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1788,7 +1868,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -1829,7 +1909,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -1870,7 +1950,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -1911,7 +1991,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -1952,7 +2032,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1993,7 +2073,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -2022,7 +2102,7 @@
         <v>7.6</v>
       </c>
       <c r="J32">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K32">
         <v>0.2</v>
@@ -2034,7 +2114,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -2048,7 +2128,7 @@
         <v>53.9</v>
       </c>
       <c r="E33">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F33">
         <v>51</v>
@@ -2063,7 +2143,7 @@
         <v>7.8</v>
       </c>
       <c r="J33">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K33">
         <v>0.1</v>
@@ -2075,7 +2155,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -2089,7 +2169,7 @@
         <v>53.7</v>
       </c>
       <c r="E34">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F34">
         <v>51.7</v>
@@ -2104,7 +2184,7 @@
         <v>7.4</v>
       </c>
       <c r="J34">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K34">
         <v>0.1</v>
@@ -2116,7 +2196,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -2157,7 +2237,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -2186,7 +2266,7 @@
         <v>8</v>
       </c>
       <c r="J36">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2198,7 +2278,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2224,10 +2304,10 @@
         <v>11.6</v>
       </c>
       <c r="I37">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J37">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2239,7 +2319,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -2280,7 +2360,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -2321,7 +2401,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2362,7 +2442,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -2403,7 +2483,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -2429,7 +2509,7 @@
         <v>11.3</v>
       </c>
       <c r="I42">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="J42">
         <v>5.9</v>
@@ -2444,12 +2524,12 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B43">
-        <v>-1.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C43">
         <v>3.1</v>
@@ -2470,7 +2550,7 @@
         <v>11.2</v>
       </c>
       <c r="I43">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="J43">
         <v>5.8</v>
@@ -2485,7 +2565,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -2526,7 +2606,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -2567,7 +2647,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
@@ -2608,7 +2688,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -2646,10 +2726,10 @@
         <v>50.2</v>
       </c>
       <c r="M47">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
@@ -2690,7 +2770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -2731,7 +2811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -2769,10 +2849,10 @@
         <v>49.1</v>
       </c>
       <c r="M50">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -2813,7 +2893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -2839,7 +2919,7 @@
         <v>10.5</v>
       </c>
       <c r="I52">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="J52">
         <v>5.8</v>
@@ -2854,7 +2934,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -2868,7 +2948,7 @@
         <v>50.9</v>
       </c>
       <c r="E53">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F53">
         <v>49</v>
@@ -2892,10 +2972,10 @@
         <v>49.2</v>
       </c>
       <c r="M53">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -2909,7 +2989,7 @@
         <v>52.9</v>
       </c>
       <c r="E54">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F54">
         <v>50.2</v>
@@ -2936,7 +3016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -2950,7 +3030,7 @@
         <v>53.7</v>
       </c>
       <c r="E55">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F55">
         <v>50.1</v>
@@ -2974,10 +3054,10 @@
         <v>51.3</v>
       </c>
       <c r="M55">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>67</v>
       </c>
@@ -3000,7 +3080,7 @@
         <v>-0.1</v>
       </c>
       <c r="H56">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I56">
         <v>7.3</v>
@@ -3018,7 +3098,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -3041,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I57">
         <v>7.5</v>
@@ -3056,10 +3136,10 @@
         <v>52.2</v>
       </c>
       <c r="M57">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
@@ -3100,7 +3180,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -3138,10 +3218,10 @@
         <v>49.8</v>
       </c>
       <c r="M59">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -3182,7 +3262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -3205,7 +3285,7 @@
         <v>0.5</v>
       </c>
       <c r="H61">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I61">
         <v>6.1</v>
@@ -3220,10 +3300,10 @@
         <v>51.8</v>
       </c>
       <c r="M61">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -3237,7 +3317,7 @@
         <v>55.3</v>
       </c>
       <c r="E62">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F62">
         <v>51.7</v>
@@ -3264,7 +3344,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
@@ -3284,10 +3364,10 @@
         <v>51.4</v>
       </c>
       <c r="G63">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H63">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I63">
         <v>5.4</v>
@@ -3305,7 +3385,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -3346,7 +3426,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -3372,7 +3452,7 @@
         <v>9.6</v>
       </c>
       <c r="I65">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J65">
         <v>5.6</v>
@@ -3384,10 +3464,10 @@
         <v>57.7</v>
       </c>
       <c r="M65">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>77</v>
       </c>
@@ -3425,10 +3505,10 @@
         <v>56.5</v>
       </c>
       <c r="M66">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
@@ -3451,10 +3531,10 @@
         <v>1.9</v>
       </c>
       <c r="H67">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I67">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J67">
         <v>5.3</v>
@@ -3466,10 +3546,10 @@
         <v>55.8</v>
       </c>
       <c r="M67">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
@@ -3492,10 +3572,10 @@
         <v>1.4</v>
       </c>
       <c r="H68">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I68">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J68">
         <v>5.2</v>
@@ -3507,10 +3587,10 @@
         <v>56.4</v>
       </c>
       <c r="M68">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
@@ -3536,10 +3616,10 @@
         <v>9.1</v>
       </c>
       <c r="I69">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J69">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K69">
         <v>0.1</v>
@@ -3551,7 +3631,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>81</v>
       </c>
@@ -3580,7 +3660,7 @@
         <v>3.9</v>
       </c>
       <c r="J70">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3592,7 +3672,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
@@ -3621,7 +3701,7 @@
         <v>3.3</v>
       </c>
       <c r="J71">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K71">
         <v>0.4</v>
@@ -3630,10 +3710,10 @@
         <v>58.4</v>
       </c>
       <c r="M71">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>83</v>
       </c>
@@ -3674,7 +3754,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>84</v>
       </c>
@@ -3697,7 +3777,7 @@
         <v>1.4</v>
       </c>
       <c r="H73">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I73">
         <v>2.7</v>
@@ -3715,7 +3795,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>85</v>
       </c>
@@ -3726,7 +3806,7 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>64.09999999999999</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="E74">
         <v>1.7</v>
@@ -3738,13 +3818,13 @@
         <v>1.5</v>
       </c>
       <c r="H74">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I74">
         <v>2.5</v>
       </c>
       <c r="J74">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K74">
         <v>0.3</v>
@@ -3756,7 +3836,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>86</v>
       </c>
@@ -3779,13 +3859,13 @@
         <v>1.3</v>
       </c>
       <c r="H75">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I75">
         <v>2.5</v>
       </c>
       <c r="J75">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K75">
         <v>0.2</v>
@@ -3794,10 +3874,10 @@
         <v>59.7</v>
       </c>
       <c r="M75">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>87</v>
       </c>
@@ -3808,7 +3888,7 @@
         <v>2.9</v>
       </c>
       <c r="D76">
-        <v>65.09999999999999</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="E76">
         <v>1.5</v>
@@ -3820,10 +3900,10 @@
         <v>1.3</v>
       </c>
       <c r="H76">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I76">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J76">
         <v>5.2</v>
@@ -3838,7 +3918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>88</v>
       </c>
@@ -3849,7 +3929,7 @@
         <v>2.8</v>
       </c>
       <c r="D77">
-        <v>64.09999999999999</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="E77">
         <v>2.9</v>
@@ -3858,13 +3938,13 @@
         <v>50.3</v>
       </c>
       <c r="G77">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H77">
         <v>8.6</v>
       </c>
       <c r="I77">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J77">
         <v>5</v>
@@ -3876,10 +3956,10 @@
         <v>60.9</v>
       </c>
       <c r="M77">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>89</v>
       </c>
@@ -3920,7 +4000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>90</v>
       </c>
@@ -3949,7 +4029,7 @@
         <v>2.4</v>
       </c>
       <c r="J79">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K79">
         <v>0.2</v>
@@ -3961,7 +4041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>91</v>
       </c>
@@ -3984,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="H80">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I80">
         <v>2.4</v>
@@ -4002,12 +4082,12 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B81">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C81">
         <v>2.5</v>
@@ -4025,10 +4105,10 @@
         <v>2</v>
       </c>
       <c r="H81">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I81">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J81">
         <v>4.7</v>
@@ -4043,7 +4123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>93</v>
       </c>
@@ -4063,7 +4143,7 @@
         <v>51.2</v>
       </c>
       <c r="G82">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H82">
         <v>8.1</v>
@@ -4084,7 +4164,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>94</v>
       </c>
@@ -4098,7 +4178,7 @@
         <v>64.2</v>
       </c>
       <c r="E83">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F83">
         <v>51.3</v>
@@ -4113,7 +4193,7 @@
         <v>3.1</v>
       </c>
       <c r="J83">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K83">
         <v>0.2</v>
@@ -4125,7 +4205,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>95</v>
       </c>
@@ -4166,12 +4246,12 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B85">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C85">
         <v>2.4</v>
@@ -4186,7 +4266,7 @@
         <v>50.2</v>
       </c>
       <c r="G85">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H85">
         <v>8.1</v>
@@ -4207,7 +4287,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>97</v>
       </c>
@@ -4221,7 +4301,7 @@
         <v>57.1</v>
       </c>
       <c r="E86">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F86">
         <v>50</v>
@@ -4248,7 +4328,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>98</v>
       </c>
@@ -4289,7 +4369,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>99</v>
       </c>
@@ -4297,7 +4377,7 @@
         <v>0.6</v>
       </c>
       <c r="C88">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D88">
         <v>54.6</v>
@@ -4318,7 +4398,7 @@
         <v>5</v>
       </c>
       <c r="J88">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -4330,7 +4410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>100</v>
       </c>
@@ -4338,7 +4418,7 @@
         <v>0.6</v>
       </c>
       <c r="C89">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D89">
         <v>54.5</v>
@@ -4359,7 +4439,7 @@
         <v>5.2</v>
       </c>
       <c r="J89">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K89">
         <v>0.3</v>
@@ -4371,7 +4451,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>101</v>
       </c>
@@ -4379,13 +4459,13 @@
         <v>0.7</v>
       </c>
       <c r="C90">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D90">
         <v>50.5</v>
       </c>
       <c r="E90">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F90">
         <v>50.5</v>
@@ -4412,7 +4492,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>102</v>
       </c>
@@ -4420,7 +4500,7 @@
         <v>0.7</v>
       </c>
       <c r="C91">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D91">
         <v>49.3</v>
@@ -4453,7 +4533,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>103</v>
       </c>
@@ -4461,7 +4541,7 @@
         <v>0.6</v>
       </c>
       <c r="C92">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D92">
         <v>49.1</v>
@@ -4479,7 +4559,7 @@
         <v>7.7</v>
       </c>
       <c r="I92">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J92">
         <v>4.5</v>
@@ -4494,7 +4574,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>104</v>
       </c>
@@ -4502,7 +4582,7 @@
         <v>0.6</v>
       </c>
       <c r="C93">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D93">
         <v>48.2</v>
@@ -4523,7 +4603,7 @@
         <v>4.7</v>
       </c>
       <c r="J93">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -4535,7 +4615,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>105</v>
       </c>
@@ -4543,7 +4623,7 @@
         <v>0.3</v>
       </c>
       <c r="C94">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D94">
         <v>45</v>
@@ -4561,7 +4641,7 @@
         <v>7.5</v>
       </c>
       <c r="I94">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J94">
         <v>4.5</v>
@@ -4576,7 +4656,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>106</v>
       </c>
@@ -4584,7 +4664,7 @@
         <v>0.3</v>
       </c>
       <c r="C95">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D95">
         <v>46.5</v>
@@ -4617,7 +4697,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>107</v>
       </c>
@@ -4625,7 +4705,7 @@
         <v>0.1</v>
       </c>
       <c r="C96">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D96">
         <v>44.5</v>
@@ -4658,7 +4738,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>108</v>
       </c>
@@ -4666,7 +4746,7 @@
         <v>-0.3</v>
       </c>
       <c r="C97">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D97">
         <v>49.5</v>
@@ -4687,7 +4767,7 @@
         <v>3.8</v>
       </c>
       <c r="J97">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K97">
         <v>0.3</v>
@@ -4699,7 +4779,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>109</v>
       </c>
@@ -4707,7 +4787,7 @@
         <v>-0.1</v>
       </c>
       <c r="C98">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D98">
         <v>48.5</v>
@@ -4728,7 +4808,7 @@
         <v>3.5</v>
       </c>
       <c r="J98">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K98">
         <v>0.2</v>
@@ -4740,7 +4820,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>110</v>
       </c>
@@ -4748,7 +4828,7 @@
         <v>0.2</v>
       </c>
       <c r="C99">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D99">
         <v>49.2</v>
@@ -4769,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="J99">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K99">
         <v>0.2</v>
@@ -4781,7 +4861,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>111</v>
       </c>
@@ -4789,7 +4869,7 @@
         <v>0.2</v>
       </c>
       <c r="C100">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D100">
         <v>48.5</v>
@@ -4822,7 +4902,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>112</v>
       </c>
@@ -4830,7 +4910,7 @@
         <v>-0.1</v>
       </c>
       <c r="C101">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D101">
         <v>49.7</v>
@@ -4839,7 +4919,7 @@
         <v>5.2</v>
       </c>
       <c r="F101">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="G101">
         <v>1.2</v>
@@ -4848,10 +4928,10 @@
         <v>7.4</v>
       </c>
       <c r="I101">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J101">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K101">
         <v>0.1</v>
@@ -4863,7 +4943,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>113</v>
       </c>
@@ -4901,21 +4981,21 @@
         <v>49.1</v>
       </c>
       <c r="M102">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B103">
-        <v>-1.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C103">
         <v>3.3</v>
       </c>
       <c r="D103">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E103">
         <v>3.3</v>
@@ -4945,7 +5025,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>115</v>
       </c>
@@ -4986,7 +5066,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>116</v>
       </c>
@@ -5027,7 +5107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>117</v>
       </c>
@@ -5065,10 +5145,10 @@
         <v>53.9</v>
       </c>
       <c r="M106">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>118</v>
       </c>
@@ -5109,7 +5189,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>119</v>
       </c>
@@ -5150,7 +5230,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>120</v>
       </c>
@@ -5191,7 +5271,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>121</v>
       </c>
@@ -5214,10 +5294,10 @@
         <v>-0.3</v>
       </c>
       <c r="H110">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I110">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J110">
         <v>6.1</v>
@@ -5232,7 +5312,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>122</v>
       </c>
@@ -5255,10 +5335,10 @@
         <v>-0.3</v>
       </c>
       <c r="H111">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I111">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J111">
         <v>5.9</v>
@@ -5273,7 +5353,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>123</v>
       </c>
@@ -5296,7 +5376,7 @@
         <v>0.9</v>
       </c>
       <c r="H112">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I112">
         <v>5.2</v>
@@ -5314,7 +5394,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>124</v>
       </c>
@@ -5337,7 +5417,7 @@
         <v>0.9</v>
       </c>
       <c r="H113">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I113">
         <v>5.7</v>
@@ -5355,7 +5435,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>125</v>
       </c>
@@ -5366,7 +5446,7 @@
         <v>3.3</v>
       </c>
       <c r="D114">
-        <v>65.59999999999999</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="E114">
         <v>0.4</v>
@@ -5378,7 +5458,7 @@
         <v>1.3</v>
       </c>
       <c r="H114">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I114">
         <v>5.8</v>
@@ -5396,7 +5476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>126</v>
       </c>
@@ -5419,7 +5499,7 @@
         <v>1.6</v>
       </c>
       <c r="H115">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I115">
         <v>5.5</v>
@@ -5437,7 +5517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>127</v>
       </c>
@@ -5448,7 +5528,7 @@
         <v>3.2</v>
       </c>
       <c r="D116">
-        <v>68.59999999999999</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="E116">
         <v>1.3</v>
@@ -5466,7 +5546,7 @@
         <v>6</v>
       </c>
       <c r="J116">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K116">
         <v>0.7</v>
@@ -5478,7 +5558,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>128</v>
       </c>
@@ -5489,10 +5569,10 @@
         <v>3.1</v>
       </c>
       <c r="D117">
-        <v>67.09999999999999</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E117">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F117">
         <v>50.9</v>
@@ -5519,7 +5599,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>129</v>
       </c>
@@ -5539,7 +5619,7 @@
         <v>50.4</v>
       </c>
       <c r="G118">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H118">
         <v>7.6</v>
@@ -5560,7 +5640,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>130</v>
       </c>
@@ -5589,7 +5669,7 @@
         <v>6.7</v>
       </c>
       <c r="J119">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K119">
         <v>0.3</v>
@@ -5601,7 +5681,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>131</v>
       </c>
@@ -5612,7 +5692,7 @@
         <v>2.8</v>
       </c>
       <c r="D120">
-        <v>67.59999999999999</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="E120">
         <v>0.7</v>
@@ -5642,7 +5722,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>132</v>
       </c>
@@ -5662,7 +5742,7 @@
         <v>49.2</v>
       </c>
       <c r="G121">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H121">
         <v>7.2</v>
@@ -5680,10 +5760,10 @@
         <v>60.8</v>
       </c>
       <c r="M121">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>133</v>
       </c>
@@ -5697,13 +5777,13 @@
         <v>63.8</v>
       </c>
       <c r="E122">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F122">
         <v>50.1</v>
       </c>
       <c r="G122">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H122">
         <v>7.1</v>
@@ -5724,7 +5804,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>134</v>
       </c>

--- a/Files/Macro_clean_pivot.xlsx
+++ b/Files/Macro_clean_pivot.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c22f1ca899110f3/Dokumente/GitHub/AQM/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lione\OneDrive\Dokumente\GitHub\AQM\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_FFC65FC04369AFE77C160B72130EF634427E4A35" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3FF166C8-C62D-4F56-9F4C-B0C3E04FAD08}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C7AEE2-C749-4647-A87D-8FE7B2652224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="156">
   <si>
     <t>Macro_Variable</t>
   </si>
@@ -436,13 +434,76 @@
   </si>
   <si>
     <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>xx['</t>
+  </si>
+  <si>
+    <t>']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = </t>
+  </si>
+  <si>
+    <t>USUNR_EC</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>.shift(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">) - </t>
+  </si>
+  <si>
+    <t>.shift(1))</t>
+  </si>
+  <si>
+    <t>RUUNR_DIFF</t>
+  </si>
+  <si>
+    <t>USUNR_DIFF</t>
+  </si>
+  <si>
+    <t>RUCPIY_DIFF</t>
+  </si>
+  <si>
+    <t>EUUNR_DIFF</t>
+  </si>
+  <si>
+    <t>EUHICY_DIFF</t>
+  </si>
+  <si>
+    <t>CNCPI_DIFF</t>
+  </si>
+  <si>
+    <t>CHJOB_DIFF</t>
+  </si>
+  <si>
+    <t>CHCPIY_DIFF</t>
+  </si>
+  <si>
+    <t>CHPMI_LOG</t>
+  </si>
+  <si>
+    <t>CNPMIB_LOG</t>
+  </si>
+  <si>
+    <t>USPMI_LOG</t>
+  </si>
+  <si>
+    <t>macro['</t>
+  </si>
+  <si>
+    <t>np.log(macro['</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,13 +519,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -491,10 +593,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -502,8 +607,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -840,29 +969,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:AC123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="19" max="19" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -879,4970 +1021,5896 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>-0.8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>2.8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>48</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>4.5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>50.5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>2.7</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>10.9</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>4.2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>6.3</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="8">
         <v>0.3</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>54.2</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>-0.9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>2.8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>48.2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>3.2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>51</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>2.7</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>11.1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>3.7</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>6.2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="8">
         <v>0.2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>53.3</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="11">
+        <f>M5-M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>-1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>2.8</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>50.6</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>3.6</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>53.1</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>2.7</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>11.2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>3.7</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>6.3</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="8">
         <v>0.2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <v>53.5</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="11">
+        <f t="shared" ref="N6:N69" si="0">M6-M5</f>
+        <v>-0.10000000000000142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>-1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>2.8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>46.5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>3.4</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>53.3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>2.6</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>11.3</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>3.6</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>5.6</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="8">
         <v>0.2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="6">
         <v>55.2</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>-1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>2.9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>45.8</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>50.4</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>2.4</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>11.4</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>3.6</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>5.2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="8">
         <v>-0.2</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="6">
         <v>53.2</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>2.9</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>47.9</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>50.2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>2.4</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>11.5</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>4.3</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>5.2</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="8">
         <v>-0.1</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="6">
         <v>49.5</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>-0.7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>2.9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>46.6</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>1.8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>50.1</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>2.4</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>11.5</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>5.6</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>5.2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="8">
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="6">
         <v>49.6</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>-0.5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>2.9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>47.1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>49.2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>2.6</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>11.6</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>5.9</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>5</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="8">
         <v>0.6</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="6">
         <v>49</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="4">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="11">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>-0.4</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>45</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>1.9</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>49.8</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>2.6</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>11.7</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>6.6</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>5</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="8">
         <v>0.5</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="6">
         <v>50.8</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="4">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>-0.2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>47.1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>1.7</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <v>50.2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>2.5</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>11.9</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>6.5</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="8">
         <v>0.3</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="6">
         <v>50.5</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="4">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>-0.4</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>49.2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>50.6</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>12</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>6.5</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <v>5.2</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="8">
         <v>-0.2</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="6">
         <v>48</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="4">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="11">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>-0.4</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>49.1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>2.5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>50.6</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>12</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <v>6.6</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="8">
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="6">
         <v>50.1</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="4">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>-0.3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>3.1</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>52.4</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>50.4</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>2</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>12.2</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>7.1</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="4">
         <v>6</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="8">
         <v>0.2</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="6">
         <v>53.3</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="11">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>-0.3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>3.1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>49.9</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>3.2</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>50.1</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>1.9</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>12.2</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>7.3</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="4">
         <v>5.8</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="8">
         <v>0.5</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="6">
         <v>54.2</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="4">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>-0.6</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>3.1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>49.1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>2.1</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <v>50.9</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>1.7</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <v>12.2</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <v>7</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>5.7</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="8">
         <v>-0.3</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="6">
         <v>51.9</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="4">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>-0.6</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>3.1</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>49.4</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>2.4</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>50.6</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>1.2</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>12.2</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>7.2</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>5.6</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="8">
         <v>-0.2</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="6">
         <v>51</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="4">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="11">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>-0.5</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>3.2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>52.4</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>2.1</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <v>50.8</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>1.4</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>12.2</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <v>7.4</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="4">
         <v>5.2</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="8">
         <v>0</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="6">
         <v>50.8</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="4">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="11">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T20" t="s">
+        <v>137</v>
+      </c>
+      <c r="U20" t="s">
+        <v>154</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB20" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC20" t="str">
+        <f>Q20&amp;R20&amp;S20&amp;T20&amp;U20&amp;V20&amp;W20&amp;X20&amp;Y20&amp;Z20&amp;AA20&amp;AB20</f>
+        <v>xx['CHCPIY_DIFF'] = macro['CHCPIY_ECI']-macro['CHCPIY_ECI'].shift(1)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>-0.1</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>3.2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>51.5</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>2.7</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <v>50.1</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>1.6</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>12.1</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>6.9</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>5.4</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="8">
         <v>0.2</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="6">
         <v>51.1</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="4">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T21" t="s">
+        <v>137</v>
+      </c>
+      <c r="U21" t="s">
+        <v>154</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="X21" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB21" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" ref="AC21:AC30" si="1">Q21&amp;R21&amp;S21&amp;T21&amp;U21&amp;V21&amp;W21&amp;X21&amp;Y21&amp;Z21&amp;AA21&amp;AB21</f>
+        <v>xx['CHJOB_DIFF'] = macro['CHJOB_ECI']-macro['CHJOB_ECI'].shift(1)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>0</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>3.2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>55.5</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>2.7</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="6">
         <v>50.3</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>1.6</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>12.1</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <v>6.5</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="4">
         <v>5.3</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="8">
         <v>0.2</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="6">
         <v>53.8</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="4">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X22" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB22" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" si="1"/>
+        <v>xx['CHPMI_LOG'] = np.log(macro['CHPMI_ECI']) - np.log(macro['CHPMI_ECI'].shift(1))</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>0</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>3.2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>55.5</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>2.6</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <v>51</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>1.3</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <v>12.1</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <v>6.5</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="4">
         <v>5.2</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="8">
         <v>0.2</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="6">
         <v>54</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="4">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="11">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T23" t="s">
+        <v>137</v>
+      </c>
+      <c r="U23" t="s">
+        <v>154</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="X23" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB23" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="1"/>
+        <v>xx['CNCPI_DIFF'] = macro['CNCPI_ECI']-macro['CNCPI_ECI'].shift(1)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>-0.1</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>3.2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>56.5</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>3.1</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <v>51.1</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>12.1</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>6.1</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="4">
         <v>5.3</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="8">
         <v>0</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="6">
         <v>54.6</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="4">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA24" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB24" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="1"/>
+        <v>xx['CNPMIB_LOG'] = np.log(macro['CNPMIB_ECI']) - np.log(macro['CNPMIB_ECI'].shift(1))</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>-0.3</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>3.2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>55</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>3.2</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <v>51.4</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <v>0.7</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <v>12</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <v>6.3</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="4">
         <v>5.5</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="8">
         <v>0.1</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="6">
         <v>54.6</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="4">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T25" t="s">
+        <v>137</v>
+      </c>
+      <c r="U25" t="s">
+        <v>154</v>
+      </c>
+      <c r="V25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="W25" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="X25" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA25" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB25" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="1"/>
+        <v>xx['EUHICY_DIFF'] = macro['EUHICY_ECI']-macro['EUHICY_ECI'].shift(1)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>0.1</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>3.2</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <v>57.2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <v>51.4</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="4">
         <v>0.9</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <v>12</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="4">
         <v>6.5</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="4">
         <v>5.4</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="8">
         <v>0.2</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="6">
         <v>55.5</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="4">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T26" t="s">
+        <v>137</v>
+      </c>
+      <c r="U26" t="s">
+        <v>154</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="W26" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="X26" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA26" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB26" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="1"/>
+        <v>xx['EUUNR_DIFF'] = macro['EUUNR_ECI']-macro['EUUNR_ECI'].shift(1)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>0.1</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>3.2</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <v>53.7</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>2.5</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6">
         <v>51</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="4">
         <v>0.8</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <v>12</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <v>6.5</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="4">
         <v>5.6</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="8">
         <v>0.3</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="6">
         <v>56.5</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="4">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T27" t="s">
+        <v>137</v>
+      </c>
+      <c r="U27" t="s">
+        <v>154</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W27" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="X27" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA27" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB27" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="1"/>
+        <v>xx['RUCPIY_DIFF'] = macro['RUCPIY_ECI']-macro['RUCPIY_ECI'].shift(1)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>0.1</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>3.1</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="6">
         <v>56.3</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>2.5</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <v>50.5</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="4">
         <v>0.8</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <v>12</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="4">
         <v>6.1</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="4">
         <v>5.6</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="8">
         <v>0.2</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="6">
         <v>52.5</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="4">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T28" t="s">
+        <v>137</v>
+      </c>
+      <c r="U28" t="s">
+        <v>154</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W28" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="X28" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA28" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB28" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC28" t="str">
+        <f t="shared" si="1"/>
+        <v>xx['RUUNR_DIFF'] = macro['RUUNR_ECI']-macro['RUUNR_ECI'].shift(1)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>-0.1</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>3.1</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>56.8</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6">
         <v>50.2</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <v>0.7</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <v>12</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="4">
         <v>6.2</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="4">
         <v>5.6</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="8">
         <v>0.1</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="6">
         <v>55</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="4">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="11">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000053</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="V29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y29" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB29" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC29" t="str">
+        <f t="shared" si="1"/>
+        <v>xx['USPMI_LOG'] = np.log(macro['USPMI_ECI']) - np.log(macro['USPMI_ECI'].shift(1))</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>3.1</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="6">
         <v>54.1</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <v>2.4</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="6">
         <v>50.3</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <v>0.5</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="4">
         <v>11.9</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="4">
         <v>6.9</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="4">
         <v>5.4</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="8">
         <v>0.2</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="6">
         <v>55.9</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="4">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="T30" t="s">
+        <v>137</v>
+      </c>
+      <c r="U30" t="s">
+        <v>154</v>
+      </c>
+      <c r="V30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="W30" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="X30" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA30" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB30" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC30" t="str">
+        <f t="shared" si="1"/>
+        <v>xx['USUNR_DIFF'] = macro['USUNR_EC']-macro['USUNR_EC'].shift(1)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>3</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <v>55</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <v>1.8</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="6">
         <v>50.4</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="4">
         <v>0.7</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="4">
         <v>11.8</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="4">
         <v>7.3</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="4">
         <v>5.3</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="8">
         <v>0.2</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="6">
         <v>56.6</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="4">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>0.2</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>3</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="6">
         <v>53.7</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>2.5</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="6">
         <v>50.8</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="4">
         <v>0.5</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="4">
         <v>11.7</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="4">
         <v>7.6</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="8">
         <v>0.2</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="6">
         <v>55.7</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="4">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="11">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>3</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="6">
         <v>53.9</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="6">
         <v>51</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="4">
         <v>0.5</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="4">
         <v>11.6</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="4">
         <v>7.8</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="8">
         <v>0.1</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="6">
         <v>55</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="4">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <v>3</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="6">
         <v>53.7</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="6">
         <v>51.7</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="4">
         <v>0.4</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="4">
         <v>11.6</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="4">
         <v>7.4</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="8">
         <v>0.1</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="6">
         <v>55.1</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="4">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="11">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>0.1</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <v>3</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="6">
         <v>53.7</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
         <v>2</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="6">
         <v>51.1</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="4">
         <v>0.4</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="4">
         <v>11.5</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="4">
         <v>7.6</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="4">
         <v>4.8</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="8">
         <v>0</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="6">
         <v>56.3</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="4">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>-0.1</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="4">
         <v>3</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="6">
         <v>51.7</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
         <v>1.6</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="6">
         <v>51.1</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="4">
         <v>0.3</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="4">
         <v>11.6</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="4">
         <v>8</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="8">
         <v>0</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="6">
         <v>55.7</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="4">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>0</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <v>3</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <v>54.7</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <v>1.6</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="6">
         <v>50.8</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="4">
         <v>0.4</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="4">
         <v>11.6</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="8">
         <v>0</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="6">
         <v>56.2</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="4">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>-0.1</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <v>3</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="6">
         <v>51.4</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
         <v>1.4</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="6">
         <v>50.3</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="4">
         <v>0.3</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="4">
         <v>11.6</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="4">
         <v>9.1</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="4">
         <v>5.2</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="8">
         <v>-0.2</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="6">
         <v>56.3</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="4">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="11">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>-0.3</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <v>3</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="6">
         <v>52.5</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="4">
         <v>1.5</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="6">
         <v>50.1</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="4">
         <v>-0.2</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="4">
         <v>11.5</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="4">
         <v>11.4</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="4">
         <v>5.3</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="8">
         <v>-0.3</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="6">
         <v>55.7</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="4">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>-0.5</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="4">
         <v>3</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="6">
         <v>49.3</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
         <v>0.8</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="6">
         <v>49.8</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="4">
         <v>-0.6</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="4">
         <v>11.4</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="4">
         <v>15</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="4">
         <v>5.5</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="8">
         <v>-0.6</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="6">
         <v>53.9</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="4">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="11">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000053</v>
+      </c>
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>-0.8</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>3.1</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="6">
         <v>47.7</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>1.4</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="6">
         <v>49.9</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="4">
         <v>-0.3</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="4">
         <v>11.3</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="4">
         <v>16.7</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="4">
         <v>5.8</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="8">
         <v>0.3</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="6">
         <v>53</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="4">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>-0.9</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="4">
         <v>3.1</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="6">
         <v>48</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <v>1.4</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="6">
         <v>50.1</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="4">
         <v>-0.1</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="4">
         <v>11.3</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="4">
         <v>5.9</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="8">
         <v>0.3</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="6">
         <v>52.1</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="4">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="11">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <v>3.1</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="6">
         <v>48</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <v>1.5</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="6">
         <v>50.1</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="4">
         <v>0.2</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="4">
         <v>11.2</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="4">
         <v>5.8</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="8">
         <v>0.1</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="6">
         <v>51.9</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="4">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>-1.2</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="4">
         <v>3.2</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="6">
         <v>47.2</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
         <v>1.2</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="6">
         <v>50.2</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="4">
         <v>0.6</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="4">
         <v>11.1</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="4">
         <v>15.8</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="4">
         <v>5.6</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="8">
         <v>0.3</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="6">
         <v>52.9</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="4">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>-1</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <v>3.2</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="6">
         <v>50.3</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <v>1.4</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="6">
         <v>50.2</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="4">
         <v>0.5</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="4">
         <v>11.1</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="4">
         <v>15.3</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="4">
         <v>5.4</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="8">
         <v>0.3</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="6">
         <v>52.5</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="4">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>-1.3</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <v>3.2</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="6">
         <v>49.9</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
         <v>1.6</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="6">
         <v>50</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="4">
         <v>0.5</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="4">
         <v>10.8</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="4">
         <v>15.6</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="4">
         <v>5.3</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="8">
         <v>0.2</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="6">
         <v>52</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="4">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="11">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>-1.4</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="4">
         <v>3.2</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="6">
         <v>51.2</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="6">
         <v>49.7</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="4">
         <v>0.4</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="4">
         <v>10.7</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="4">
         <v>15.8</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="4">
         <v>5.3</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="8">
         <v>0</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="6">
         <v>50.2</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="4">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>-1.4</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="4">
         <v>3.2</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="6">
         <v>48.2</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="4">
         <v>1.6</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="6">
         <v>49.8</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="4">
         <v>0.2</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="4">
         <v>10.7</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="4">
         <v>15.7</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="4">
         <v>5.2</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="8">
         <v>-0.2</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="6">
         <v>50.1</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="11">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>-1.4</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="4">
         <v>3.2</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="6">
         <v>49.7</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
         <v>1.3</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="6">
         <v>49.8</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="4">
         <v>0.4</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="4">
         <v>10.7</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="4">
         <v>15.6</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="4">
         <v>5.5</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="8">
         <v>0.1</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="6">
         <v>49.1</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>-1.4</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <v>3.3</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="6">
         <v>48.5</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
         <v>1.5</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="6">
         <v>49.6</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="4">
         <v>0.1</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="4">
         <v>10.6</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="4">
         <v>15</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="4">
         <v>5.8</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="8">
         <v>0.1</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="6">
         <v>49.1</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="4">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="11">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>-1.3</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <v>3.3</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="6">
         <v>49.8</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>1.6</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="6">
         <v>49.7</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="4">
         <v>0.3</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="4">
         <v>10.6</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="4">
         <v>12.9</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="4">
         <v>5.8</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="8">
         <v>-0.1</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="6">
         <v>48.7</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="11">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>-1.3</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="4">
         <v>3.3</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="6">
         <v>50.4</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>1.8</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="6">
         <v>49.4</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="4">
         <v>0.3</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="4">
         <v>10.5</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="4">
         <v>5.8</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="8">
         <v>0</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="6">
         <v>47.6</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="4">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>-0.8</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="4">
         <v>3.3</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="6">
         <v>50.9</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="6">
         <v>49</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="4">
         <v>-0.1</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="4">
         <v>10.5</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="4">
         <v>8.1</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="4">
         <v>5.8</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="8">
         <v>-0.1</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="6">
         <v>49.2</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="4">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="11">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>-0.9</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="4">
         <v>3.3</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="6">
         <v>52.9</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="6">
         <v>50.2</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="4">
         <v>0</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="4">
         <v>10.3</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="4">
         <v>7.3</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="4">
         <v>6</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="8">
         <v>0.3</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="6">
         <v>51</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="11">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>-0.4</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="4">
         <v>3.3</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="6">
         <v>53.7</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="6">
         <v>50.1</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="4">
         <v>-0.3</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="4">
         <v>10.3</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="4">
         <v>7.3</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="4">
         <v>5.9</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="8">
         <v>0.4</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="6">
         <v>51.3</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="4">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="11">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>-0.4</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="4">
         <v>3.4</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="6">
         <v>56.1</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="4">
         <v>2</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="6">
         <v>50.1</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="4">
         <v>-0.1</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="4">
         <v>7.3</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="4">
         <v>5.6</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="8">
         <v>0.2</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="6">
         <v>51.4</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="4">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999982</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>-0.4</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="4">
         <v>3.3</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="6">
         <v>51.6</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="4">
         <v>1.9</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="6">
         <v>50</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="4">
         <v>0</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="4">
         <v>7.5</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="4">
         <v>5.4</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="8">
         <v>0.3</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="6">
         <v>52.2</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="4">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="11">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>-0.2</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="4">
         <v>3.3</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="6">
         <v>50.7</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="4">
         <v>1.8</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="6">
         <v>49.9</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="4">
         <v>0.2</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="4">
         <v>10</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="4">
         <v>7.2</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="4">
         <v>5.3</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="8">
         <v>-0.1</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="6">
         <v>52.7</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="4">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>-0.1</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="4">
         <v>3.3</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="6">
         <v>51.8</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="4">
         <v>1.3</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="6">
         <v>50.4</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="4">
         <v>0.2</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="4">
         <v>9.9</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="4">
         <v>6.9</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="4">
         <v>5.2</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="8">
         <v>0.2</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="6">
         <v>49.8</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="4">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="11">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>-0.2</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="4">
         <v>3.3</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="6">
         <v>54.9</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="4">
         <v>1.9</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="6">
         <v>50.4</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="4">
         <v>0.4</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="4">
         <v>9.9</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="4">
         <v>6.4</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="4">
         <v>5.2</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="8">
         <v>0.3</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="6">
         <v>51.1</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="11">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>-0.2</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="4">
         <v>3.3</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="6">
         <v>55</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="4">
         <v>2.1</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="6">
         <v>51.2</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="4">
         <v>0.5</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="4">
         <v>6.1</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="4">
         <v>5.4</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="8">
         <v>0.2</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="6">
         <v>51.8</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="4">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="11">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>-0.3</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="4">
         <v>3.3</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="6">
         <v>55.3</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="6">
         <v>51.7</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="4">
         <v>0.6</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="4">
         <v>9.9</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="4">
         <v>5.8</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="4">
         <v>5.4</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="8">
         <v>0.1</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="6">
         <v>53.2</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="4">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>0</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="4">
         <v>3.3</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="6">
         <v>55.3</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="4">
         <v>2.1</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="6">
         <v>51.4</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="4">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="4">
         <v>5.4</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="4">
         <v>5.3</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="8">
         <v>0.3</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="6">
         <v>54.4</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="4">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>0.3</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="4">
         <v>3.2</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="6">
         <v>54.9</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="4">
         <v>2.5</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="6">
         <v>51.3</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="4">
         <v>1.7</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="4">
         <v>9.6</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="4">
         <v>5</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="4">
         <v>5.6</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="8">
         <v>0.4</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="6">
         <v>55.7</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="4">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <v>0.6</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="4">
         <v>3.2</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="6">
         <v>57.2</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="4">
         <v>0.8</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="6">
         <v>51.6</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="4">
         <v>2</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="4">
         <v>9.6</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="4">
         <v>5.6</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="8">
         <v>0.2</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="6">
         <v>57.7</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="4">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <v>0.6</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="4">
         <v>3.2</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="6">
         <v>58.6</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="4">
         <v>0.9</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="6">
         <v>51.8</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="4">
         <v>1.5</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="4">
         <v>9.5</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="4">
         <v>4.3</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="4">
         <v>5.4</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="8">
         <v>0</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="6">
         <v>56.5</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="4">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>0.4</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="4">
         <v>3.2</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="6">
         <v>58.2</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="4">
         <v>1.2</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="6">
         <v>51.2</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="4">
         <v>1.9</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="4">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="4">
         <v>5.3</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="8">
         <v>0.1</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="6">
         <v>55.8</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="4">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
         <v>0.5</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="4">
         <v>3.1</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="6">
         <v>56.6</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="4">
         <v>1.5</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="6">
         <v>51.2</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="4">
         <v>1.4</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="4">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="4">
         <v>5.2</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="8">
         <v>-0.1</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="6">
         <v>56.4</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="4">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
         <v>0.2</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="4">
         <v>3.1</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="6">
         <v>60.5</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="4">
         <v>1.5</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="6">
         <v>51.7</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="4">
         <v>1.3</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="4">
         <v>9.1</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="8">
         <v>0.1</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="6">
         <v>56.2</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="4">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <v>0.3</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="4">
         <v>3.1</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="6">
         <v>60.2</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="4">
         <v>1.4</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="6">
         <v>51.4</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="4">
         <v>1.3</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="4">
         <v>9.1</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="4">
         <v>3.9</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="8">
         <v>0</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="6">
         <v>56.5</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="4">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="11">
+        <f t="shared" ref="N70:N123" si="2">M70-M69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>0.5</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="4">
         <v>3.1</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="6">
         <v>61.2</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="4">
         <v>1.8</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="6">
         <v>51.7</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="4">
         <v>1.5</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="4">
         <v>9</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="4">
         <v>3.3</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="8">
         <v>0.4</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="6">
         <v>58.4</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="4">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="11">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <v>0.7</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="4">
         <v>3</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="6">
         <v>62.4</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="4">
         <v>1.6</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="6">
         <v>52.4</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="4">
         <v>1.6</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="4">
         <v>8.9</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="4">
         <v>3</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="4">
         <v>5</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="8">
         <v>0.5</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="6">
         <v>60</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="4">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
         <v>0.7</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="4">
         <v>3</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="6">
         <v>61.6</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="4">
         <v>1.9</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="6">
         <v>51.6</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="4">
         <v>1.4</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="4">
         <v>2.7</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="4">
         <v>5</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="8">
         <v>0.1</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="6">
         <v>58.6</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="4">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="11">
+        <f t="shared" si="2"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <v>0.8</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="4">
         <v>3</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="6">
         <v>64.099999999999994</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="4">
         <v>1.7</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="6">
         <v>51.8</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="4">
         <v>1.5</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="4">
         <v>2.5</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="8">
         <v>0.3</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="6">
         <v>57.6</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="4">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>0.8</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="4">
         <v>2.9</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="6">
         <v>63.9</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="4">
         <v>1.8</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="6">
         <v>51.6</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="4">
         <v>1.3</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="4">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="4">
         <v>2.5</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="8">
         <v>0.2</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="6">
         <v>59.7</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="4">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <v>0.7</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="4">
         <v>2.9</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="6">
         <v>65.099999999999994</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="4">
         <v>1.5</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="6">
         <v>51.3</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="4">
         <v>1.3</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="4">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="4">
         <v>5.2</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="8">
         <v>0.4</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="6">
         <v>59.4</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="11">
+        <f t="shared" si="2"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <v>0.6</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="4">
         <v>2.8</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="6">
         <v>64.099999999999994</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="4">
         <v>2.9</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="6">
         <v>50.3</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="4">
         <v>8.6</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="4">
         <v>5</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="8">
         <v>0.3</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="6">
         <v>60.9</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="4">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="11">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
         <v>0.8</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="4">
         <v>2.7</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="6">
         <v>61.5</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="4">
         <v>2.1</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="6">
         <v>51.5</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="4">
         <v>1.4</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="4">
         <v>8.6</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="4">
         <v>2.4</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="4">
         <v>5</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="8">
         <v>0.1</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="6">
         <v>58.8</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="11">
+        <f t="shared" si="2"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>0.8</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="4">
         <v>2.6</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="6">
         <v>63.6</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="4">
         <v>1.8</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="6">
         <v>51.4</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="4">
         <v>1.2</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="4">
         <v>8.5</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="4">
         <v>2.4</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="8">
         <v>0.2</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="6">
         <v>58.6</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <v>1</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="4">
         <v>2.5</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="6">
         <v>63.4</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="4">
         <v>1.8</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="6">
         <v>51.9</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="4">
         <v>2</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="4">
         <v>2.4</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="4">
         <v>4.7</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="8">
         <v>0.3</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="6">
         <v>59</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="4">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="4">
         <v>2.5</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="6">
         <v>62.3</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="4">
         <v>1.9</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="6">
         <v>51.5</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="4">
         <v>2</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="4">
         <v>4.7</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="8">
         <v>0.1</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="6">
         <v>59.9</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="11">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
         <v>1.2</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="4">
         <v>2.5</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="6">
         <v>62</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="4">
         <v>2.1</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="6">
         <v>51.2</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="4">
         <v>8.1</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="4">
         <v>2.5</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="4">
         <v>4.7</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="8">
         <v>0.1</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="6">
         <v>58.1</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="4">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <v>1.2</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="4">
         <v>2.5</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="6">
         <v>64.2</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="6">
         <v>51.3</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="4">
         <v>2.1</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="4">
         <v>8</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="4">
         <v>3.1</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="8">
         <v>0.2</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="6">
         <v>60.5</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="4">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
         <v>1</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="4">
         <v>2.5</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="6">
         <v>60</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="4">
         <v>2.5</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="6">
         <v>50.8</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="4">
         <v>2.1</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="4">
         <v>8</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="4">
         <v>3.4</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="4">
         <v>4.5</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="8">
         <v>0.2</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="6">
         <v>59.3</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="4">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="11">
+        <f t="shared" si="2"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="4">
         <v>2.4</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="6">
         <v>57.7</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="4">
         <v>2.5</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="6">
         <v>50.2</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="4">
         <v>8.1</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="4">
         <v>3.5</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="4">
         <v>4.7</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="8">
         <v>0.2</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="6">
         <v>58.1</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="4">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="11">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <v>0.9</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="4">
         <v>2.4</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="6">
         <v>57.1</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="6">
         <v>50</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="4">
         <v>1.9</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="4">
         <v>8</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="4">
         <v>3.8</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="4">
         <v>4.8</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="8">
         <v>-0.1</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="6">
         <v>58.6</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="4">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
         <v>0.7</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="4">
         <v>2.4</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="6">
         <v>56.4</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="4">
         <v>1.9</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="6">
         <v>49.4</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="4">
         <v>1.5</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="4">
         <v>7.9</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="4">
         <v>4.3</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="4">
         <v>4.8</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="8">
         <v>0</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="6">
         <v>54.9</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="4">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="11">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="4">
         <v>0.6</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="6">
         <v>54.6</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="4">
         <v>1.7</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="6">
         <v>49.5</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="4">
         <v>1.4</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="4">
         <v>7.9</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="4">
         <v>5</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="8">
         <v>0</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="6">
         <v>55.7</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="11">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="4">
         <v>0.6</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="6">
         <v>54.5</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="4">
         <v>1.5</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="6">
         <v>49.2</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="4">
         <v>1.5</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="4">
         <v>7.9</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="4">
         <v>5.2</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="8">
         <v>0.3</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="6">
         <v>54.4</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="4">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="4">
         <v>0.7</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="6">
         <v>50.5</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="6">
         <v>50.5</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="4">
         <v>1.4</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="4">
         <v>7.7</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="4">
         <v>5.2</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="4">
         <v>4.7</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="8">
         <v>0.4</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="6">
         <v>54.9</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="4">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="4">
         <v>0.7</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="6">
         <v>49.3</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="4">
         <v>2.5</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="6">
         <v>50.1</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="4">
         <v>1.7</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="4">
         <v>7.7</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="4">
         <v>5.2</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="4">
         <v>4.7</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="8">
         <v>0.4</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="6">
         <v>53.6</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="4">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.19999999999999973</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="4">
         <v>0.6</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="6">
         <v>49.1</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="4">
         <v>2.7</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="6">
         <v>49.4</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="4">
         <v>1.2</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="4">
         <v>7.7</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="4">
         <v>4.5</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="8">
         <v>0.1</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="6">
         <v>52.6</v>
       </c>
-      <c r="M92">
+      <c r="M92" s="4">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="4">
         <v>0.6</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="6">
         <v>48.2</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="4">
         <v>2.7</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="6">
         <v>49.4</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="4">
         <v>1.3</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="4">
         <v>7.6</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="4">
         <v>4.7</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="8">
         <v>0</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="6">
         <v>51.5</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="4">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="4">
         <v>0.3</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="6">
         <v>45</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="4">
         <v>2.8</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="6">
         <v>49.7</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="4">
         <v>1</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="4">
         <v>7.5</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="4">
         <v>4.5</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="8">
         <v>0.2</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="6">
         <v>51</v>
       </c>
-      <c r="M94">
+      <c r="M94" s="4">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="11">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="4">
         <v>0.3</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="6">
         <v>46.5</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="4">
         <v>2.8</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="6">
         <v>49.5</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="4">
         <v>1</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="4">
         <v>7.4</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="4">
         <v>4.3</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="4">
         <v>4.3</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="8">
         <v>0.1</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="6">
         <v>48.5</v>
       </c>
-      <c r="M95">
+      <c r="M95" s="4">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="4">
         <v>0.1</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="6">
         <v>44.5</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="4">
         <v>3</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="6">
         <v>49.8</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="4">
         <v>0.8</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="4">
         <v>7.5</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="4">
         <v>4</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="4">
         <v>4.5</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="8">
         <v>0.2</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="6">
         <v>48.1</v>
       </c>
-      <c r="M96">
+      <c r="M96" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="4">
         <v>-0.3</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="6">
         <v>49.5</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="4">
         <v>3.8</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="6">
         <v>49.3</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="4">
         <v>0.7</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="4">
         <v>7.5</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="4">
         <v>3.8</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="8">
         <v>0.3</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="6">
         <v>48.1</v>
       </c>
-      <c r="M97">
+      <c r="M97" s="4">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="11">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="4">
         <v>-0.1</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="6">
         <v>48.5</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="4">
         <v>4.5</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="6">
         <v>50.2</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="4">
         <v>1</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="4">
         <v>7.5</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="4">
         <v>3.5</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="8">
         <v>0.2</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="6">
         <v>48.1</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="4">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="4">
         <v>0.2</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="6">
         <v>49.2</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="4">
         <v>4.5</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="6">
         <v>50.2</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="4">
         <v>1.3</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="4">
         <v>7.5</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="4">
         <v>3</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="8">
         <v>0.2</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="6">
         <v>47.9</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="4">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="4">
         <v>0.2</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="6">
         <v>48.5</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="4">
         <v>5.4</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="6">
         <v>50</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="4">
         <v>1.4</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="4">
         <v>7.5</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="4">
         <v>2.4</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="4">
         <v>4.7</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="8">
         <v>0.2</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="6">
         <v>51.4</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="4">
         <v>-0.1</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="6">
         <v>49.7</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="4">
         <v>5.2</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="6">
         <v>35.700000000000003</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="4">
         <v>1.2</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="4">
         <v>7.4</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="8">
         <v>0.1</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="6">
         <v>50.3</v>
       </c>
-      <c r="M101">
+      <c r="M101" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="4">
         <v>-0.5</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="4">
         <v>2.8</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="6">
         <v>43.2</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="4">
         <v>4.3</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="6">
         <v>52</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="4">
         <v>0.7</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="4">
         <v>7.2</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="4">
         <v>2.5</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="4">
         <v>4.7</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="8">
         <v>-0.3</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="6">
         <v>49.1</v>
       </c>
-      <c r="M102">
+      <c r="M102" s="4">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" s="11">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000036</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="4">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="4">
         <v>3.3</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="6">
         <v>40.700000000000003</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="4">
         <v>3.3</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="6">
         <v>50.8</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="4">
         <v>0.3</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="4">
         <v>7.4</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="4">
         <v>3.1</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="4">
         <v>5.8</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="8">
         <v>-0.8</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="6">
         <v>41.6</v>
       </c>
-      <c r="M103">
+      <c r="M103" s="4">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" s="11">
+        <f t="shared" si="2"/>
+        <v>10.299999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="4">
         <v>-1.3</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="4">
         <v>3.5</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="6">
         <v>42</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="4">
         <v>2.4</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="6">
         <v>50.6</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="4">
         <v>0.1</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="4">
         <v>7.6</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="4">
         <v>3</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="4">
         <v>6.1</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="8">
         <v>-0.1</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="6">
         <v>43.5</v>
       </c>
-      <c r="M104">
+      <c r="M104" s="4">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" s="11">
+        <f t="shared" si="2"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="4">
         <v>-1.3</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="4">
         <v>3.5</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="6">
         <v>41.5</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="4">
         <v>2.5</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="6">
         <v>50.9</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="4">
         <v>0.3</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="4">
         <v>8.1</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="4">
         <v>3.2</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="4">
         <v>6.2</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="8">
         <v>0.5</v>
       </c>
-      <c r="L105">
+      <c r="L105" s="6">
         <v>52.4</v>
       </c>
-      <c r="M105">
+      <c r="M105" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" s="11">
+        <f t="shared" si="2"/>
+        <v>-2.1999999999999993</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="4">
         <v>-0.9</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="4">
         <v>3.4</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="6">
         <v>48.9</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="4">
         <v>2.7</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="6">
         <v>51.1</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="4">
         <v>0.4</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="4">
         <v>8.4</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="4">
         <v>3.4</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="4">
         <v>6.3</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="8">
         <v>0.5</v>
       </c>
-      <c r="L106">
+      <c r="L106" s="6">
         <v>53.9</v>
       </c>
-      <c r="M106">
+      <c r="M106" s="4">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.80000000000000071</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="4">
         <v>-0.9</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="4">
         <v>3.4</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="6">
         <v>50.6</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="4">
         <v>2.4</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="6">
         <v>51</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="4">
         <v>-0.2</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="4">
         <v>8.6</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="4">
         <v>3.6</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="4">
         <v>6.4</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="8">
         <v>0.4</v>
       </c>
-      <c r="L107">
+      <c r="L107" s="6">
         <v>55.4</v>
       </c>
-      <c r="M107">
+      <c r="M107" s="4">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" s="11">
+        <f t="shared" si="2"/>
+        <v>-1.7999999999999989</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="4">
         <v>-0.8</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="4">
         <v>3.4</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="6">
         <v>52.5</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="4">
         <v>1.7</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="6">
         <v>51.5</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="4">
         <v>-0.3</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="4">
         <v>8.6</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="4">
         <v>3.7</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="4">
         <v>6.3</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="8">
         <v>0.2</v>
       </c>
-      <c r="L108">
+      <c r="L108" s="6">
         <v>55.4</v>
       </c>
-      <c r="M108">
+      <c r="M108" s="4">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="4">
         <v>-0.6</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="4">
         <v>3.3</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="6">
         <v>53.1</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="4">
         <v>0.5</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="6">
         <v>51.4</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="4">
         <v>-0.3</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="4">
         <v>8.4</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="4">
         <v>4</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="4">
         <v>6.3</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="8">
         <v>0.1</v>
       </c>
-      <c r="L109">
+      <c r="L109" s="6">
         <v>58.8</v>
       </c>
-      <c r="M109">
+      <c r="M109" s="4">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" s="11">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="4">
         <v>-0.7</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="4">
         <v>3.3</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="6">
         <v>55.4</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="4">
         <v>-0.5</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="6">
         <v>52.1</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="4">
         <v>-0.3</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="4">
         <v>6.1</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="8">
         <v>0.1</v>
       </c>
-      <c r="L110">
+      <c r="L110" s="6">
         <v>57.3</v>
       </c>
-      <c r="M110">
+      <c r="M110" s="4">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="4">
         <v>-0.8</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="4">
         <v>3.3</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="6">
         <v>58.6</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="4">
         <v>0.2</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="6">
         <v>51.9</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="4">
         <v>-0.3</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="4">
         <v>5.9</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="8">
         <v>0.3</v>
       </c>
-      <c r="L111">
+      <c r="L111" s="6">
         <v>60.5</v>
       </c>
-      <c r="M111">
+      <c r="M111" s="4">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="4">
         <v>-0.5</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="4">
         <v>3.3</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="6">
         <v>60.1</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="4">
         <v>-0.3</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="6">
         <v>51.3</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="4">
         <v>0.9</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="4">
         <v>5.2</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="4">
         <v>5.8</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="8">
         <v>0.2</v>
       </c>
-      <c r="L112">
+      <c r="L112" s="6">
         <v>59.4</v>
       </c>
-      <c r="M112">
+      <c r="M112" s="4">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.29999999999999982</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="4">
         <v>-0.5</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="4">
         <v>3.3</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="6">
         <v>62</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="4">
         <v>-0.2</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="6">
         <v>50.6</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="4">
         <v>0.9</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="4">
         <v>5.7</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="4">
         <v>5.7</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="8">
         <v>0.4</v>
       </c>
-      <c r="L113">
+      <c r="L113" s="6">
         <v>60.9</v>
       </c>
-      <c r="M113">
+      <c r="M113" s="4">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="4">
         <v>-0.2</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="4">
         <v>3.3</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="6">
         <v>65.599999999999994</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="4">
         <v>0.4</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="6">
         <v>51.9</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="4">
         <v>1.3</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="4">
         <v>5.8</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="4">
         <v>5.4</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="8">
         <v>0.6</v>
       </c>
-      <c r="L114">
+      <c r="L114" s="6">
         <v>63.7</v>
       </c>
-      <c r="M114">
+      <c r="M114" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="4">
         <v>0.3</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="4">
         <v>3.2</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="6">
         <v>68.3</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="4">
         <v>0.9</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="6">
         <v>51.1</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="4">
         <v>1.6</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="4">
         <v>5.5</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="4">
         <v>5.2</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="8">
         <v>0.6</v>
       </c>
-      <c r="L115">
+      <c r="L115" s="6">
         <v>60.6</v>
       </c>
-      <c r="M115">
+      <c r="M115" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="4">
         <v>0.6</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="4">
         <v>3.2</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="6">
         <v>68.599999999999994</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="4">
         <v>1.3</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="6">
         <v>51</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="4">
         <v>2</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="4">
         <v>8.1</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="4">
         <v>6</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="8">
         <v>0.7</v>
       </c>
-      <c r="L116">
+      <c r="L116" s="6">
         <v>61.6</v>
       </c>
-      <c r="M116">
+      <c r="M116" s="4">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="4">
         <v>0.6</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="4">
         <v>3.1</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="6">
         <v>67.099999999999994</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="6">
         <v>50.9</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="4">
         <v>1.9</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="4">
         <v>7.9</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="4">
         <v>6.5</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="4">
         <v>4.8</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="8">
         <v>0.9</v>
       </c>
-      <c r="L117">
+      <c r="L117" s="6">
         <v>60.9</v>
       </c>
-      <c r="M117">
+      <c r="M117" s="4">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" s="11">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="4">
         <v>0.7</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="4">
         <v>3</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="6">
         <v>70</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="4">
         <v>1</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="6">
         <v>50.4</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="4">
         <v>7.6</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="4">
         <v>6.5</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="4">
         <v>4.5</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="8">
         <v>0.5</v>
       </c>
-      <c r="L118">
+      <c r="L118" s="6">
         <v>59.9</v>
       </c>
-      <c r="M118">
+      <c r="M118" s="4">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="4">
         <v>0.9</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="4">
         <v>2.9</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="6">
         <v>67</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="4">
         <v>0.8</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="6">
         <v>50.1</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="4">
         <v>3</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="4">
         <v>7.5</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="4">
         <v>6.7</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="8">
         <v>0.3</v>
       </c>
-      <c r="L119">
+      <c r="L119" s="6">
         <v>59.7</v>
       </c>
-      <c r="M119">
+      <c r="M119" s="4">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="4">
         <v>0.9</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="4">
         <v>2.8</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="6">
         <v>67.599999999999994</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="4">
         <v>0.7</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="6">
         <v>49.6</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="4">
         <v>3.4</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="4">
         <v>7.3</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="4">
         <v>7.4</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="4">
         <v>4.3</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="8">
         <v>0.4</v>
       </c>
-      <c r="L120">
+      <c r="L120" s="6">
         <v>60.5</v>
       </c>
-      <c r="M120">
+      <c r="M120" s="4">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="4">
         <v>1.2</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="4">
         <v>2.7</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="6">
         <v>65.7</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="4">
         <v>1.5</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="6">
         <v>49.2</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="4">
         <v>7.2</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="4">
         <v>8.1</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="4">
         <v>4.3</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="8">
         <v>0.9</v>
       </c>
-      <c r="L121">
+      <c r="L121" s="6">
         <v>60.8</v>
       </c>
-      <c r="M121">
+      <c r="M121" s="4">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="4">
         <v>1.5</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="4">
         <v>2.5</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="6">
         <v>63.8</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="6">
         <v>50.1</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="4">
         <v>7.1</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="4">
         <v>8.4</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="4">
         <v>4.3</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="8">
         <v>0.7</v>
       </c>
-      <c r="L122">
+      <c r="L122" s="6">
         <v>60.6</v>
       </c>
-      <c r="M122">
+      <c r="M122" s="4">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.39999999999999947</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="4">
         <v>1.5</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="4">
         <v>2.4</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="6">
         <v>64.2</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="4">
         <v>1.5</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="6">
         <v>50.3</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="4">
         <v>5</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="4">
         <v>7</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="4">
         <v>8.4</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="4">
         <v>4.3</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="8">
         <v>0.6</v>
       </c>
-      <c r="L123">
+      <c r="L123" s="6">
         <v>58.8</v>
       </c>
-      <c r="M123">
+      <c r="M123" s="4">
         <v>3.9</v>
+      </c>
+      <c r="N123" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.30000000000000027</v>
       </c>
     </row>
   </sheetData>
@@ -5850,5 +6918,6 @@
     <mergeCell ref="B1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>